--- a/03_構造化設計/非機能要求一覧.xlsx
+++ b/03_構造化設計/非機能要求一覧.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22907"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_59851E4B5A9BCD612C9CD5233F55223B04A86936" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DF319AF8-A637-44DA-A7A0-E7D367ECD19F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0C0309-5A85-46DA-B34F-450EE7BBA4F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -19,9 +19,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -249,9 +247,6 @@
     <t>人間プレイヤーをコンピュータプレイヤーに変更しやすくする</t>
   </si>
   <si>
-    <t>プレイヤークラスを継承したコンピュータプレイヤークラスを作成する</t>
-  </si>
-  <si>
     <t>N04-02</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -387,13 +382,27 @@
   <si>
     <t>WANT</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>プレイヤークラスを継承したコンピュータプレイヤークラスを作成する
+(今回の反復では実装しない)</t>
+    <rPh sb="34" eb="36">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,11 +1076,11 @@
   </sheetPr>
   <dimension ref="B1:E30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
@@ -1459,14 +1468,14 @@
     <col min="16134" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="9" customHeight="1"/>
-    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="5" spans="2:5" ht="40.15" customHeight="1">
+    <row r="5" spans="2:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
@@ -1475,8 +1484,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="9" customHeight="1"/>
-    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
@@ -1486,7 +1495,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1496,7 +1505,7 @@
       <c r="D8" s="7"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" ht="19.5" customHeight="1">
+    <row r="9" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
         <v>7</v>
@@ -1504,7 +1513,7 @@
       <c r="D9" s="10"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
         <v>8</v>
@@ -1512,7 +1521,7 @@
       <c r="D10" s="10"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
@@ -1520,7 +1529,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1530,7 +1539,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
         <v>12</v>
@@ -1538,7 +1547,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="11"/>
       <c r="C14" s="8" t="s">
         <v>13</v>
@@ -1546,7 +1555,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" ht="12">
+    <row r="15" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="11"/>
       <c r="C15" s="10" t="s">
         <v>14</v>
@@ -1554,7 +1563,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="12"/>
     </row>
-    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
@@ -1564,7 +1573,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="11"/>
       <c r="C17" s="8" t="s">
         <v>17</v>
@@ -1572,7 +1581,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" ht="12">
+    <row r="18" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="11"/>
       <c r="C18" s="10" t="s">
         <v>18</v>
@@ -1580,7 +1589,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="12"/>
     </row>
-    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="11"/>
       <c r="C19" s="10" t="s">
         <v>19</v>
@@ -1588,7 +1597,7 @@
       <c r="D19" s="10"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="13" t="s">
         <v>20</v>
       </c>
@@ -1598,7 +1607,7 @@
       <c r="D20" s="15"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:5" ht="91.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="11"/>
       <c r="C21" s="8" t="s">
         <v>22</v>
@@ -1606,62 +1615,62 @@
       <c r="D21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="12">
+      <c r="E21" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="11"/>
       <c r="C22" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="12"/>
     </row>
-    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="11"/>
       <c r="C23" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="11"/>
       <c r="C25" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="2:5" ht="12">
+    <row r="26" spans="2:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="11"/>
       <c r="C26" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="16"/>
       <c r="C27" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="10"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="2:5" ht="9" customHeight="1"/>
-    <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="17"/>
     </row>
   </sheetData>
@@ -1690,7 +1699,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
@@ -2079,14 +2088,14 @@
     <col min="16135" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="9" customHeight="1"/>
-    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="5" spans="2:6" ht="40.15" customHeight="1">
+    <row r="5" spans="2:6" ht="40.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="26" t="s">
         <v>1</v>
       </c>
@@ -2095,11 +2104,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="9" customHeight="1"/>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
@@ -2110,7 +2119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -2121,14 +2130,14 @@
       <c r="E8" s="18"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="19"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
@@ -2139,14 +2148,14 @@
       <c r="E10" s="18"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="11"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="20"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
@@ -2157,16 +2166,16 @@
       <c r="E12" s="18"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="13" t="s">
         <v>20</v>
       </c>
@@ -2177,7 +2186,7 @@
       <c r="E14" s="21"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="24"/>
       <c r="C15" s="25" t="s">
         <v>22</v>
@@ -2186,51 +2195,51 @@
         <v>23</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="2:6" ht="67.5" customHeight="1">
+    <row r="16" spans="2:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="18"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="16"/>
       <c r="C18" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>38</v>
-      </c>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="2:6" ht="9" customHeight="1"/>
-    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
@@ -2250,12 +2259,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2443,15 +2449,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2475,10 +2485,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>